--- a/13-MaJ_CDA_AGGIR/ig/all-profiles.xlsx
+++ b/13-MaJ_CDA_AGGIR/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T09:39:15+00:00</t>
+    <t>2025-10-15T10:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/13-MaJ_CDA_AGGIR/ig/all-profiles.xlsx
+++ b/13-MaJ_CDA_AGGIR/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T10:10:48+00:00</t>
+    <t>2025-10-15T10:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/13-MaJ_CDA_AGGIR/ig/all-profiles.xlsx
+++ b/13-MaJ_CDA_AGGIR/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T10:34:50+00:00</t>
+    <t>2025-10-15T12:02:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
